--- a/QUALITY REVIEW NEW STYLE Revisi.xlsx
+++ b/QUALITY REVIEW NEW STYLE Revisi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Bimo\Backup Program\fo_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3660F8C-0B89-404D-A7B3-0C9FB3079F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C60B7-C5E2-4D8E-959D-AB85E15AA514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESS" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -720,7 +720,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -728,7 +728,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -776,17 +776,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -794,56 +848,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -852,13 +858,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1372,16 +1372,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
@@ -1421,30 +1421,30 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="33" t="s">
         <v>14</v>
       </c>
@@ -1602,18 +1602,18 @@
       <c r="B29" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="39" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39" t="s">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="33" t="s">
         <v>22</v>
       </c>
@@ -1622,64 +1622,72 @@
       <c r="B30" s="33">
         <v>1</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="33">
         <v>2</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="33">
         <v>3</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="33">
         <v>4</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="33">
         <v>5</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
@@ -1696,14 +1704,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1713,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1741,31 +1741,31 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="N5" s="39" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="N5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="58" t="s">
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1773,21 +1773,21 @@
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="57"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1797,17 +1797,17 @@
       <c r="S6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="59"/>
+      <c r="T6" s="48"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="4"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="4"/>
       <c r="N7" s="6">
         <v>45838</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="4"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1859,13 +1859,13 @@
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="4"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="4"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1927,48 +1927,48 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="54">
         <v>1</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="54">
         <v>2</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="54">
         <v>3</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="54">
         <v>4</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="49"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="55"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:11" ht="15.6">
       <c r="B17" s="13" t="s">
@@ -2067,12 +2067,12 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="20"/>
       <c r="G22" s="17" t="s">
         <v>54</v>
@@ -2125,95 +2125,101 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="49.95" customHeight="1">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="4"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="41"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="4"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="41"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="4"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="41"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="4"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="41"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="41"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -2228,17 +2234,11 @@
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2248,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2284,10 +2284,10 @@
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
@@ -2307,10 +2307,10 @@
       <c r="E7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="38" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2352,28 +2352,28 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="61" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="2:7" ht="15.6">
       <c r="B14" s="9" t="s">

--- a/QUALITY REVIEW NEW STYLE Revisi.xlsx
+++ b/QUALITY REVIEW NEW STYLE Revisi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Bimo\Backup Program\fo_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C60B7-C5E2-4D8E-959D-AB85E15AA514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC680D3D-B622-4B06-A97F-0CC5CB6008A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>FIRST OUT PUT REVIEW</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Edit By</t>
+  </si>
+  <si>
+    <t>1/2 ling bottom skirt</t>
   </si>
 </sst>
 </file>
@@ -785,11 +788,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,45 +849,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,16 +1375,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="s">
@@ -1421,30 +1424,30 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="33" t="s">
         <v>14</v>
       </c>
@@ -1606,14 +1609,14 @@
         <v>20</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="33" t="s">
         <v>22</v>
       </c>
@@ -1680,14 +1683,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
@@ -1704,6 +1699,14 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1741,31 +1744,31 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="N5" s="41" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="N5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="47" t="s">
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="59" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1773,21 +1776,21 @@
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="46"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="58"/>
       <c r="Q6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1797,16 +1800,16 @@
       <c r="S6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="48"/>
+      <c r="T6" s="60"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="4"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="40"/>
       <c r="J7" s="4"/>
       <c r="N7" s="6">
@@ -1824,11 +1827,11 @@
     <row r="8" spans="2:20">
       <c r="B8" s="4"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="40"/>
       <c r="J8" s="4"/>
       <c r="N8" s="4"/>
@@ -1842,11 +1845,11 @@
     <row r="9" spans="2:20">
       <c r="B9" s="4"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="40"/>
       <c r="J9" s="4"/>
       <c r="N9" s="4"/>
@@ -1860,11 +1863,11 @@
     <row r="10" spans="2:20">
       <c r="B10" s="4"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="40"/>
       <c r="J10" s="4"/>
       <c r="N10" s="4"/>
@@ -1878,11 +1881,11 @@
     <row r="11" spans="2:20">
       <c r="B11" s="4"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="40"/>
       <c r="J11" s="4"/>
       <c r="N11" s="4"/>
@@ -1927,48 +1930,48 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="49">
         <v>1</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="49">
         <v>2</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="49">
         <v>3</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="49">
         <v>4</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="51"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="2:11" ht="15.6">
       <c r="B17" s="13" t="s">
@@ -2067,12 +2070,12 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="20"/>
       <c r="G22" s="17" t="s">
         <v>54</v>
@@ -2125,101 +2128,95 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="49.95" customHeight="1">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="4"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="40"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="4"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="40"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="4"/>
       <c r="C31" s="39"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="40"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="4"/>
       <c r="C32" s="39"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="40"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="40"/>
       <c r="J33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -2234,11 +2231,17 @@
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2248,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2414,7 +2417,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>49</v>
